--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3749018.142425411</v>
+        <v>3746472.956352125</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.35833737073</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>337.455017953679</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>168.8841199149501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>73.73129007891198</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.80890171427166</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>80.34251881621513</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>138.7300006800425</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>142.4361410009233</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781316</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2356.285436519557</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.819678258477</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.680346282665</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4513,22 +4513,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1280.556556803303</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>911.5940398628911</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D5" t="n">
-        <v>553.3283412561407</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E5" t="n">
-        <v>553.3283412561407</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F5" t="n">
-        <v>142.3424364665331</v>
+        <v>551.7277219004728</v>
       </c>
       <c r="G5" t="n">
-        <v>128.419032405124</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>128.419032405124</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4604,13 +4604,13 @@
         <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843236</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1667.156396867425</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>625.3202087220412</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1327.083642256368</v>
+        <v>1002.011105850106</v>
       </c>
       <c r="C8" t="n">
-        <v>958.1211253159559</v>
+        <v>633.0485889096944</v>
       </c>
       <c r="D8" t="n">
-        <v>599.8554267092054</v>
+        <v>274.7828903029439</v>
       </c>
       <c r="E8" t="n">
-        <v>214.0671741109612</v>
+        <v>193.6288308926256</v>
       </c>
       <c r="F8" t="n">
-        <v>207.1216733617577</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G8" t="n">
-        <v>194.0742956385892</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>236.3052261842097</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>318.8683807588021</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>871.6816390050013</v>
       </c>
       <c r="M8" t="n">
-        <v>1663.175414063304</v>
+        <v>1058.381051830409</v>
       </c>
       <c r="N8" t="n">
-        <v>2290.483082123151</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.457387763373</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.688732493259</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.222974232179</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.083642256368</v>
+        <v>1388.610945914228</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>514.004752557214</v>
       </c>
       <c r="M9" t="n">
-        <v>1623.437760398664</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
         <v>1822.094502051329</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>828.2484665920741</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5027,40 +5027,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908939</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,7 +5276,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,13 +5419,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,25 +5513,25 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921482</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,16 +6306,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9027098310023</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,49 +6929,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7078,19 +7078,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7154,55 +7154,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>162.7555498691535</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>91.69549323938426</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>257.8023768260592</v>
       </c>
       <c r="M9" t="n">
-        <v>441.9679254493644</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721034</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721034</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710692</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="F2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055058</v>
@@ -26344,16 +26344,16 @@
         <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="N2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682771</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.536566682766</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682763</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682793</v>
+        <v>5677.536566682729</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102759.6913699182</v>
+        <v>-102759.6913699181</v>
       </c>
       <c r="C6" t="n">
-        <v>487208.1878446265</v>
+        <v>487208.1878446263</v>
       </c>
       <c r="D6" t="n">
         <v>331404.381750831</v>
       </c>
       <c r="E6" t="n">
-        <v>-111063.4880658903</v>
+        <v>-111098.2259913262</v>
       </c>
       <c r="F6" t="n">
-        <v>659989.2033149161</v>
+        <v>659954.4653894801</v>
       </c>
       <c r="G6" t="n">
-        <v>659989.2033149159</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="H6" t="n">
-        <v>659989.203314916</v>
+        <v>659954.4653894806</v>
       </c>
       <c r="I6" t="n">
-        <v>659989.203314916</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="J6" t="n">
-        <v>483565.984122323</v>
+        <v>483531.2461968876</v>
       </c>
       <c r="K6" t="n">
-        <v>659989.203314916</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="L6" t="n">
-        <v>659989.203314916</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="M6" t="n">
-        <v>535780.6926068575</v>
+        <v>535745.9546814222</v>
       </c>
       <c r="N6" t="n">
-        <v>659989.2033149163</v>
+        <v>659954.4653894805</v>
       </c>
       <c r="O6" t="n">
-        <v>659989.2033149162</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="P6" t="n">
-        <v>659989.2033149161</v>
+        <v>659954.4653894803</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>248.5720327015318</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>11.78595076373398</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>244.9000501058449</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.20002616594927</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>272.4729725277061</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>184.742310607042</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>301.5878512560466</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>176.3108833951731</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28062,10 +28062,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>143.8245136571737</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31841,25 +31841,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>362.8934092184361</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>726.7533607666135</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,19 +33026,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>473.8581708471803</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,19 +33734,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,16 +33974,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>184.2042872362074</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>263.5833975999494</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>396.4181323974672</v>
       </c>
       <c r="M9" t="n">
-        <v>623.2783662115914</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>161.1235481502633</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>224.339029438562</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>584.6193268445951</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>342.516458763847</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>416.6233618831937</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,19 +37382,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
